--- a/RiskRegisterV2.xlsx
+++ b/RiskRegisterV2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benfoard/Documents/GitHub/WorldConquest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6319BB45-B300-A845-B903-D4A9263B9005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF99B9B5-3C7C-4D4D-B0F7-2110F77DB60C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20300" xr2:uid="{675FC953-D933-0542-981A-2DED7F2019BF}"/>
   </bookViews>
@@ -359,9 +359,6 @@
     <t>Practice using GIT in advnace of project, discuss issues timely</t>
   </si>
   <si>
-    <t>Version 1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tim, Owen,  Youssef </t>
   </si>
   <si>
@@ -369,6 +366,9 @@
   </si>
   <si>
     <t>Ben, Youssef , Tim</t>
+  </si>
+  <si>
+    <t>Version 2</t>
   </si>
 </sst>
 </file>
@@ -950,7 +950,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="139" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -966,7 +966,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,14 +1029,14 @@
         <v>5</v>
       </c>
       <c r="F4">
-        <f>D4*E4</f>
+        <f t="shared" ref="F4:F35" si="0">D4*E4</f>
         <v>25</v>
       </c>
       <c r="G4" s="13" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -1053,7 +1053,7 @@
         <v>5</v>
       </c>
       <c r="F5">
-        <f>D5*E5</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G5" s="13" t="s">
@@ -1077,7 +1077,7 @@
         <v>4</v>
       </c>
       <c r="F6">
-        <f>D6*E6</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="G6" s="13" t="s">
@@ -1101,7 +1101,7 @@
         <v>4</v>
       </c>
       <c r="F7">
-        <f>D7*E7</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G7" s="13" t="s">
@@ -1125,7 +1125,7 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <f>D8*E8</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G8" s="13" t="s">
@@ -1149,7 +1149,7 @@
         <v>3</v>
       </c>
       <c r="F9">
-        <f>D9*E9</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G9" s="13" t="s">
@@ -1173,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="F10">
-        <f>D10*E10</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G10" s="13" t="s">
@@ -1197,7 +1197,7 @@
         <v>5</v>
       </c>
       <c r="F11">
-        <f>D11*E11</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G11" s="13" t="s">
@@ -1221,7 +1221,7 @@
         <v>5</v>
       </c>
       <c r="F12">
-        <f>D12*E12</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G12" s="13" t="s">
@@ -1245,7 +1245,7 @@
         <v>4</v>
       </c>
       <c r="F13">
-        <f>D13*E13</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G13" s="13" t="s">
@@ -1269,7 +1269,7 @@
         <v>4</v>
       </c>
       <c r="F14">
-        <f>D14*E14</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G14" s="13" t="s">
@@ -1293,14 +1293,14 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <f>D15*E15</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>91</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
         <v>4</v>
       </c>
       <c r="F16">
-        <f>D16*E16</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G16" s="13" t="s">
@@ -1327,7 +1327,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B17" s="8" t="s">
         <v>38</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <f>D17*E17</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G17" s="13" t="s">
@@ -1365,7 +1365,7 @@
         <v>2</v>
       </c>
       <c r="F18">
-        <f>D18*E18</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G18" s="13" t="s">
@@ -1375,7 +1375,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B19" s="8" t="s">
         <v>18</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <f>D19*E19</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G19" s="13" t="s">
@@ -1399,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>25</v>
       </c>
@@ -1413,7 +1413,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <f>D20*E20</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G20" s="13" t="s">
@@ -1437,17 +1437,17 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <f>D21*E21</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G21" s="13" t="s">
         <v>96</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
@@ -1461,7 +1461,7 @@
         <v>2</v>
       </c>
       <c r="F22">
-        <f>D22*E22</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G22" s="13" t="s">
@@ -1471,7 +1471,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B23" s="8" t="s">
         <v>47</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <f>D23*E23</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G23" s="13" t="s">
@@ -1495,7 +1495,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>32</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="F24">
-        <f>D24*E24</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G24" s="13" t="s">
@@ -1533,7 +1533,7 @@
         <v>1</v>
       </c>
       <c r="F25">
-        <f>D25*E25</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G25" s="13" t="s">
@@ -1557,7 +1557,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <f>D26*E26</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G26" s="13" t="s">
@@ -1581,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="F27">
-        <f>D27*E27</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G27" s="13" t="s">
@@ -1591,7 +1591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="s">
         <v>44</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="F28">
-        <f>D28*E28</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G28" s="13" t="s">
@@ -1629,7 +1629,7 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <f>D29*E29</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G29" s="13" t="s">
@@ -1639,7 +1639,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" ht="68" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="s">
         <v>49</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="F30">
-        <f>D30*E30</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G30" s="13" t="s">
@@ -1663,7 +1663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B31" s="8" t="s">
         <v>61</v>
       </c>
@@ -1677,7 +1677,7 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <f>D31*E31</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G31" s="13" t="s">
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="F32">
-        <f>D32*E32</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G32" s="13" t="s">
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="F33">
-        <f>D33*E33</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="G33" s="13" t="s">
@@ -1738,7 +1738,7 @@
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="F34">
-        <f>D34*E34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G34" s="13"/>
@@ -1747,7 +1747,7 @@
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="8"/>
       <c r="F35">
-        <f>D35*E35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G35" s="13"/>
@@ -1756,7 +1756,7 @@
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B36" s="8"/>
       <c r="F36">
-        <f>D36*E36</f>
+        <f t="shared" ref="F36:F67" si="1">D36*E36</f>
         <v>0</v>
       </c>
       <c r="G36" s="13"/>
@@ -1765,7 +1765,7 @@
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="F37">
-        <f>D37*E37</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G37" s="13"/>
@@ -1774,7 +1774,7 @@
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="8"/>
       <c r="F38">
-        <f>D38*E38</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G38" s="13"/>
@@ -1783,7 +1783,7 @@
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="8"/>
       <c r="F39">
-        <f>D39*E39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G39" s="13"/>
@@ -1792,7 +1792,7 @@
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="8"/>
       <c r="F40">
-        <f>D40*E40</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G40" s="13"/>
@@ -1801,7 +1801,7 @@
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="8"/>
       <c r="F41">
-        <f>D41*E41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G41" s="13"/>
@@ -1810,7 +1810,7 @@
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="8"/>
       <c r="F42">
-        <f>D42*E42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G42" s="13"/>
@@ -1819,7 +1819,7 @@
     <row r="43" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B43" s="8"/>
       <c r="F43">
-        <f>D43*E43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G43" s="13"/>
@@ -1828,7 +1828,7 @@
     <row r="44" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B44" s="8"/>
       <c r="F44">
-        <f>D44*E44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G44" s="13"/>
@@ -1837,7 +1837,7 @@
     <row r="45" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B45" s="8"/>
       <c r="F45">
-        <f>D45*E45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G45" s="13"/>
@@ -1846,7 +1846,7 @@
     <row r="46" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B46" s="8"/>
       <c r="F46">
-        <f>D46*E46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G46" s="13"/>
@@ -1855,7 +1855,7 @@
     <row r="47" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
       <c r="F47">
-        <f>D47*E47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G47" s="13"/>
@@ -1864,7 +1864,7 @@
     <row r="48" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
       <c r="F48">
-        <f>D48*E48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G48" s="13"/>
@@ -1873,7 +1873,7 @@
     <row r="49" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
       <c r="F49">
-        <f>D49*E49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G49" s="13"/>
@@ -1882,7 +1882,7 @@
     <row r="50" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
       <c r="F50">
-        <f>D50*E50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G50" s="13"/>
@@ -1891,7 +1891,7 @@
     <row r="51" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B51" s="8"/>
       <c r="F51">
-        <f>D51*E51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G51" s="13"/>
@@ -1900,7 +1900,7 @@
     <row r="52" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B52" s="8"/>
       <c r="F52">
-        <f>D52*E52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G52" s="13"/>
@@ -1909,7 +1909,7 @@
     <row r="53" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B53" s="8"/>
       <c r="F53">
-        <f>D53*E53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G53" s="13"/>
@@ -1918,7 +1918,7 @@
     <row r="54" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B54" s="8"/>
       <c r="F54">
-        <f>D54*E54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G54" s="13"/>
@@ -1927,7 +1927,7 @@
     <row r="55" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B55" s="8"/>
       <c r="F55">
-        <f>D55*E55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G55" s="13"/>
@@ -1936,7 +1936,7 @@
     <row r="56" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B56" s="8"/>
       <c r="F56">
-        <f>D56*E56</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G56" s="13"/>
@@ -1945,7 +1945,7 @@
     <row r="57" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B57" s="8"/>
       <c r="F57">
-        <f>D57*E57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G57" s="13"/>
@@ -1954,7 +1954,7 @@
     <row r="58" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B58" s="8"/>
       <c r="F58">
-        <f>D58*E58</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G58" s="13"/>
